--- a/result/compare-spotbugs/csv/manual_label/spotbugs-unmatched-result.xlsx
+++ b/result/compare-spotbugs/csv/manual_label/spotbugs-unmatched-result.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/audrey/Documents/GitHub/rbugs_experiments/result/compare-spotbugs/csv/manual_label/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7280D703-960D-344E-8E6C-5B99F748233C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="14800"/>
+    <workbookView xWindow="-25600" yWindow="5600" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="spotbugs-unmatched-result" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'spotbugs-unmatched-result'!$E$1:$E$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'spotbugs-unmatched-result'!$A$1:$C$32</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="98">
   <si>
     <t>Is our FN?</t>
   </si>
@@ -230,9 +236,6 @@
   </si>
   <si>
     <t>org/eclipse/jetty/webapp/DecoratingListener.java</t>
-  </si>
-  <si>
-    <t>matched. Report at contructor line</t>
   </si>
   <si>
     <t>paho.mqtt.java</t>
@@ -325,18 +328,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -360,142 +357,20 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线 Light"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -514,182 +389,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -712,165 +413,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -895,82 +444,39 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="22" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="19" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="22" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="19" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="19" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="19" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="009C5701"/>
-      <color rgb="00FFEC9B"/>
+      <color rgb="FF9C5701"/>
+      <color rgb="FFFFEC9B"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1228,31 +734,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="22.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="25.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="56.1666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.8333333333333" style="2"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="56.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="2"/>
     <col min="6" max="7" width="9" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="40.6666666666667" style="2" customWidth="1"/>
+    <col min="8" max="8" width="40.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42" spans="1:11">
+    <row r="1" spans="1:11" ht="51">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
@@ -1279,7 +784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="70" spans="1:11">
+    <row r="2" spans="1:11" ht="85">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1314,7 +819,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="70" spans="1:11">
+    <row r="3" spans="1:11" ht="85">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1349,7 +854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="70" spans="1:11">
+    <row r="4" spans="1:11" ht="85">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1384,7 +889,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="98" spans="1:11">
+    <row r="5" spans="1:11" ht="136">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1419,7 +924,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" ht="140" spans="1:11">
+    <row r="6" spans="1:11" ht="170">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1454,7 +959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" ht="98" spans="1:11">
+    <row r="7" spans="1:11" ht="119">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1489,7 +994,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" ht="98" spans="1:11">
+    <row r="8" spans="1:11" ht="119">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1524,7 +1029,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" ht="70" spans="1:11">
+    <row r="9" spans="1:11" ht="85">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1559,7 +1064,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" ht="84" spans="1:11">
+    <row r="10" spans="1:11" ht="119">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1594,7 +1099,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" ht="70" spans="1:11">
+    <row r="11" spans="1:11" ht="102">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1629,7 +1134,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" ht="98" spans="1:11">
+    <row r="12" spans="1:11" ht="119">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -1664,7 +1169,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" ht="14" hidden="1" spans="1:11">
+    <row r="13" spans="1:11">
       <c r="A13" s="5" t="s">
         <v>45</v>
       </c>
@@ -1693,7 +1198,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" ht="14" hidden="1" spans="1:11">
+    <row r="14" spans="1:11">
       <c r="A14" s="5" t="s">
         <v>45</v>
       </c>
@@ -1722,7 +1227,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" ht="14" hidden="1" spans="1:11">
+    <row r="15" spans="1:11">
       <c r="A15" s="5" t="s">
         <v>45</v>
       </c>
@@ -1751,7 +1256,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" ht="14" hidden="1" spans="1:11">
+    <row r="16" spans="1:11">
       <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
@@ -1780,7 +1285,7 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" ht="126" spans="1:11">
+    <row r="17" spans="1:11" ht="170">
       <c r="A17" s="3" t="s">
         <v>56</v>
       </c>
@@ -1815,7 +1320,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" ht="126" spans="1:11">
+    <row r="18" spans="1:11" ht="170">
       <c r="A18" s="3" t="s">
         <v>56</v>
       </c>
@@ -1850,7 +1355,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" ht="112" spans="1:11">
+    <row r="19" spans="1:11" ht="136">
       <c r="A19" s="3" t="s">
         <v>56</v>
       </c>
@@ -1885,7 +1390,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" ht="140" spans="1:11">
+    <row r="20" spans="1:11" ht="170">
       <c r="A20" s="3" t="s">
         <v>56</v>
       </c>
@@ -1920,7 +1425,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" ht="126" spans="1:11">
+    <row r="21" spans="1:11" ht="170">
       <c r="A21" s="3" t="s">
         <v>56</v>
       </c>
@@ -1955,7 +1460,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" ht="14" hidden="1" spans="1:11">
+    <row r="22" spans="1:11">
       <c r="A22" s="5" t="s">
         <v>66</v>
       </c>
@@ -1984,7 +1489,7 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" ht="14" hidden="1" spans="1:11">
+    <row r="23" spans="1:11">
       <c r="A23" s="5" t="s">
         <v>66</v>
       </c>
@@ -1997,27 +1502,27 @@
       <c r="D23" s="7">
         <v>29</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="16" t="s">
-        <v>70</v>
+      <c r="E23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" ht="112" spans="1:11">
+    <row r="24" spans="1:11" ht="136">
       <c r="A24" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="3">
         <v>288</v>
@@ -2038,21 +1543,21 @@
         <v>13</v>
       </c>
       <c r="J24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" ht="112" spans="1:11">
+    </row>
+    <row r="25" spans="1:11" ht="136">
       <c r="A25" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="3">
         <v>290</v>
@@ -2073,90 +1578,90 @@
         <v>13</v>
       </c>
       <c r="J25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K25" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" ht="14" hidden="1" spans="1:11">
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="C26" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="D26" s="7">
         <v>-1</v>
       </c>
-      <c r="E26" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="19" t="s">
+      <c r="E26" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="H26" s="20" t="s">
-        <v>79</v>
+      <c r="H26" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" ht="14" hidden="1" spans="1:11">
+    <row r="27" spans="1:11">
       <c r="A27" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="C27" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="7">
         <v>-1</v>
       </c>
-      <c r="E27" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="19" t="s">
+      <c r="E27" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="H27" s="20" t="s">
-        <v>79</v>
+      <c r="H27" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" ht="112" spans="1:11">
+    <row r="28" spans="1:11" ht="136">
       <c r="A28" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8">
         <v>931</v>
       </c>
-      <c r="E28" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="23" t="s">
+      <c r="E28" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="22" t="s">
         <v>11</v>
       </c>
       <c r="H28" s="10" t="s">
@@ -2166,21 +1671,21 @@
         <v>13</v>
       </c>
       <c r="J28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K28" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K28" s="3" t="s">
+    </row>
+    <row r="29" spans="1:11" ht="153">
+      <c r="A29" s="3" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="29" ht="126" spans="1:11">
-      <c r="A29" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="3">
         <v>792</v>
@@ -2195,27 +1700,27 @@
         <v>11</v>
       </c>
       <c r="H29" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" ht="84" spans="1:11">
+    </row>
+    <row r="30" spans="1:11" ht="102">
       <c r="A30" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D30" s="3">
         <v>1187</v>
@@ -2230,27 +1735,27 @@
         <v>11</v>
       </c>
       <c r="H30" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K30" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" ht="98" spans="1:11">
+    </row>
+    <row r="31" spans="1:11" ht="119">
       <c r="A31" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D31" s="3">
         <v>1186</v>
@@ -2265,57 +1770,49 @@
         <v>11</v>
       </c>
       <c r="H31" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="I31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J31" s="3" t="s">
+      <c r="K31" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="K31" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" ht="14" hidden="1" spans="1:11">
-      <c r="A32" s="5" t="s">
+      <c r="B32" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="C32" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="D32" s="7">
         <v>-1</v>
       </c>
-      <c r="E32" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="19" t="s">
+      <c r="E32" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="H32" s="20" t="s">
-        <v>98</v>
+      <c r="H32" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E32">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="equal" val="Y"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/result/compare-spotbugs/csv/manual_label/spotbugs-unmatched-result.xlsx
+++ b/result/compare-spotbugs/csv/manual_label/spotbugs-unmatched-result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/audrey/Documents/GitHub/rbugs_experiments/result/compare-spotbugs/csv/manual_label/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/audrey/Documents/GitHub/codegex-analysis/codegex-evaluation/result/compare-spotbugs/csv/manual_label/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7280D703-960D-344E-8E6C-5B99F748233C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E72A8C8-DE2C-5A4F-89E8-CCAB76759564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="5600" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="spotbugs-unmatched-result" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="158">
   <si>
     <t>Is our FN?</t>
   </si>
@@ -323,17 +323,204 @@
   </si>
   <si>
     <t>Matched. The line number should be 6.</t>
+  </si>
+  <si>
+    <t>DMI_HARDCODED_ABSOLUTE_FILENAME</t>
+  </si>
+  <si>
+    <t>org/biojava/nbio/genome/parsers/geneid/GeneIDXMLReader.java</t>
+  </si>
+  <si>
+    <t>GeneIDXMLReader geneIDXMLReader = new GeneIDXMLReader("/Users/Scooter/scripps/dyadic/geneid/geneid/c1_geneid.xml");</t>
+  </si>
+  <si>
+    <t>Only support single-line pattern</t>
+  </si>
+  <si>
+    <t>org/biojava/nbio/genome/parsers/gff/GFF3Reader.java</t>
+  </si>
+  <si>
+    <t>FeatureList listGenes = GFF3Reader.read("/home/melo/workspace/release/stdout.combined.checked2.gtf");</t>
+  </si>
+  <si>
+    <t>FeatureList listGenes = GeneIDGFF2Reader.read("/Users/Scooter/scripps/dyadic/analysis/454Scaffolds/genemark_hmm.gtf");</t>
+  </si>
+  <si>
+    <t>FeatureList listGenes = GeneMarkGTFReader.read("/Users/Scooter/scripps/dyadic/analysis/454Scaffolds/genemark_hmm.gtf");</t>
+  </si>
+  <si>
+    <t>org/biojava/nbio/genome/query/BlastXMLQuery.java</t>
+  </si>
+  <si>
+    <t>BlastXMLQuery blastXMLQuery = new BlastXMLQuery("/Users/Scooter/scripps/dyadic/analysis/454Scaffolds/c1-454Scaffolds-hits-uniprot_fungi.xml");</t>
+  </si>
+  <si>
+    <t>org/biojava/nbio/structure/align/gui/aligpanel/AligPanel.java</t>
+  </si>
+  <si>
+    <t>BufferedReader in = new BufferedReader(new FileReader(file));</t>
+  </si>
+  <si>
+    <t>org/biojava/nbio/survival/cox/CoxHelper.java</t>
+  </si>
+  <si>
+    <t>String datafile = "/Users/Scooter/scripps/ngs/DataSets/E2197/misc/ecoglabtransfer/500790/2013.05.10.12.28.58.313/clindasl0228.txt";
+CoxInfo ci = CoxHelper.process(datafile, "ttr", "recind", "wt", "sstrat", "Seq", variables, false, true);</t>
+  </si>
+  <si>
+    <t>org/biojava/nbio/survival/kaplanmeier/figure/ExpressionFigure.java</t>
+  </si>
+  <si>
+    <t>expressionFigure.savePNG("/Users/Scooter/Downloads/test.png");</t>
+  </si>
+  <si>
+    <t>org/biojava/nbio/survival/kaplanmeier/figure/SurvFitKM.java</t>
+  </si>
+  <si>
+    <t>kaplanMeierFigure.savePNG("/Users/Scooter/Downloads/test.png");</t>
+  </si>
+  <si>
+    <t>String datafile = "/Users/Scooter/scripps/ngs/BLJ/E2197/Predictive Signatures/V$HSF_Q6-E2197 TTR.txt";
+SurvFitInfo si = survFitKM.process(datafile, "TIME", "STATUS", "WEIGHT", "MEAN", true);</t>
+  </si>
+  <si>
+    <t>org/biojava/nbio/survival/kaplanmeier/metadata/ClinicalMetaDataOutcome.java</t>
+  </si>
+  <si>
+    <t>WorkSheet worksheet = WorkSheet.readCSV("/Users/Scooter/scripps/ngs/DataSets/METABRIC/EGAD00010000210/table_S2_revised.txt", '\t');</t>
+  </si>
+  <si>
+    <t>org/biojava/nbio/core/sequence/io/FastaReader.java</t>
+  </si>
+  <si>
+    <t>String inputFile = "/PF00104_small.fasta";
+File file = new File(inputFile);</t>
+  </si>
+  <si>
+    <t>org/biojava/nbio/core/sequence/loader/GenbankProxySequenceReader.java</t>
+  </si>
+  <si>
+    <t>GenbankProxySequenceReader&lt;AminoAcidCompound&gt; genbankProteinReader
+= new GenbankProxySequenceReader&lt;AminoAcidCompound&gt;("/tmp", "NP_000257", AminoAcidCompoundSet.getAminoAcidCompoundSet());</t>
+  </si>
+  <si>
+    <t>io/fabric8/maven/core/util/kubernetes/KindFilenameMapperUtil.java</t>
+  </si>
+  <si>
+    <t>try (final InputStream mappingFile = loadContent(location); final InputStream mappingPropertiesFile = loadContent(locationMappingProperties)) {</t>
+  </si>
+  <si>
+    <t>SpringBootUnity</t>
+  </si>
+  <si>
+    <t>info/xiaomo/core/untils/XmlUtil.java</t>
+  </si>
+  <si>
+    <t>Element parse = parse("E:\\thinkpage_cities.xls", "UTF8");</t>
+  </si>
+  <si>
+    <t>info/xiaomo/crawler/schedule/ScheduledTasks.java</t>
+  </si>
+  <si>
+    <t>DownUtil.download(url, "D:\\yys\\");</t>
+  </si>
+  <si>
+    <t>org/apdplat/superword/extract/DefinitionExtractor.java</t>
+  </si>
+  <si>
+    <t>Set&lt;Word&gt; words = parse("/Users/apple/百度云同步盘/origin_html.zip");</t>
+  </si>
+  <si>
+    <t>org/apdplat/superword/extract/HyphenExtractor.java</t>
+  </si>
+  <si>
+    <t>Map&lt;String, AtomicInteger&gt; wordsJDK = parse("/Library/Java/JavaVirtualMachines/jdk1.8.0_11.jdk/Contents/Home/src.zip");</t>
+  </si>
+  <si>
+    <t>Map&lt;String, AtomicInteger&gt; data = parse("/Users/apple/百度云同步盘/origin_html.zip");</t>
+  </si>
+  <si>
+    <t>org/apdplat/superword/extract/PartOfSpeechExtractor.java</t>
+  </si>
+  <si>
+    <t>org/apdplat/superword/extract/PhraseExtractor.java</t>
+  </si>
+  <si>
+    <t>Set&lt;String&gt; parses = parse("/Users/apple/百度云同步盘/origin_html.zip");</t>
+  </si>
+  <si>
+    <t>org/apdplat/superword/extract/RootAffixExtractor.java</t>
+  </si>
+  <si>
+    <t>Map&lt;Word, Set&lt;Word&gt;&gt; rootAffixes = parse("/Users/apple/百度云同步盘/origin_html.zip");</t>
+  </si>
+  <si>
+    <t>org/apdplat/superword/extract/SynonymAntonymExtractor.java</t>
+  </si>
+  <si>
+    <t>Set&lt;SynonymAntonym&gt; antonyms = parse("/Users/apple/百度云同步盘/origin_html.zip");</t>
+  </si>
+  <si>
+    <t>Set&lt;SynonymAntonym&gt; synonymAntonyms = parse("/Users/apple/百度云同步盘/origin_html.zip");</t>
+  </si>
+  <si>
+    <t>org/apdplat/superword/extract/SynonymDiscriminationExtractor.java</t>
+  </si>
+  <si>
+    <t>Set&lt;SynonymDiscrimination&gt; synonymDiscrimination = parse("/Users/apple/百度云同步盘/origin_html.zip");</t>
+  </si>
+  <si>
+    <t>org/apdplat/superword/tools/JavaCodeAnalyzer.java</t>
+  </si>
+  <si>
+    <t>String zipFile = "/Library/Java/JavaVirtualMachines/jdk1.8.0_11.jdk/Contents/Home/src.zip";
+System.out.print(importantWords(zipFile));
+//toDic(zipFile, "src/main/resources/word_java.txt");</t>
+  </si>
+  <si>
+    <t>org/apdplat/superword/tools/PdfParser.java</t>
+  </si>
+  <si>
+    <t>parseZip("/Users/apple/百度云同步盘/【大数据】相关技术英文原版电子书/it-software-domain.zip");</t>
+  </si>
+  <si>
+    <t>org/apdplat/superword/tools/WordClassifier.java</t>
+  </si>
+  <si>
+    <t>parse("/Users/apple/百度云同步盘/origin_html_iciba__new.zip");</t>
+  </si>
+  <si>
+    <t>org/apdplat/superword/tools/WordClassifierForOxford.java</t>
+  </si>
+  <si>
+    <t>parse("/Users/apple/百度云同步盘/origin_html_oxford.zip");</t>
+  </si>
+  <si>
+    <t>org/apdplat/superword/tools/WordClassifierForWebster.java</t>
+  </si>
+  <si>
+    <t>parse("/Users/apple/百度云同步盘/origin_html_webster.zip");</t>
+  </si>
+  <si>
+    <t>org/apdplat/superword/tools/WordClassifierForYouDao.java</t>
+  </si>
+  <si>
+    <t>parse("/Users/apple/百度云同步盘/origin_html_youdao.zip");</t>
+  </si>
+  <si>
+    <t>Only support single-line pattern</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -341,31 +528,42 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
       <name val="Times New Roman Regular"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
       <name val="Times New Roman Regular"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -419,7 +617,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -457,11 +655,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="差" xfId="2" builtinId="27"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -740,11 +940,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -889,7 +1089,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="136">
+    <row r="5" spans="1:11" ht="119">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1064,7 +1264,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="119">
+    <row r="10" spans="1:11" ht="102">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1099,7 +1299,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="102">
+    <row r="11" spans="1:11" ht="85">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1285,7 +1485,7 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:11" ht="170">
+    <row r="17" spans="1:11" ht="153">
       <c r="A17" s="3" t="s">
         <v>56</v>
       </c>
@@ -1320,7 +1520,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="170">
+    <row r="18" spans="1:11" ht="153">
       <c r="A18" s="3" t="s">
         <v>56</v>
       </c>
@@ -1425,7 +1625,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="170">
+    <row r="21" spans="1:11" ht="153">
       <c r="A21" s="3" t="s">
         <v>56</v>
       </c>
@@ -1811,7 +2011,721 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
     </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="23">
+        <v>89</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="J33" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="23">
+        <v>192</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J34" s="24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="23">
+        <v>207</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J35" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="23">
+        <v>199</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J36" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="23">
+        <v>86</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J37" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="23">
+        <v>91</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J38" s="24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="23">
+        <v>161</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J39" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="23">
+        <v>403</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J40" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="23">
+        <v>555</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J41" s="24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="23">
+        <v>525</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J42" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" s="23">
+        <v>96</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J43" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" s="23">
+        <v>248</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J44" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" s="23">
+        <v>190</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J45" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" s="23">
+        <v>37</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J46" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="23">
+        <v>142</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J47" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="23">
+        <v>55</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J48" s="24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" s="23">
+        <v>167</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J49" s="24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" s="23">
+        <v>234</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I50" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J50" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51" s="23">
+        <v>228</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J51" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" s="23">
+        <v>206</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J52" s="24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D53" s="23">
+        <v>178</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J53" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54" s="23">
+        <v>176</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J54" s="24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D55" s="23">
+        <v>192</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J55" s="24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D56" s="23">
+        <v>181</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J56" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="D57" s="23">
+        <v>171</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J57" s="24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58" s="23">
+        <v>170</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J58" s="24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D59" s="23">
+        <v>754</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J59" s="24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="D60" s="23">
+        <v>312</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J60" s="24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D61" s="23">
+        <v>247</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I61" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J61" s="24" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D62" s="23">
+        <v>249</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I62" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J62" s="24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D63" s="23">
+        <v>313</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I63" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J63" s="24" t="s">
+        <v>156</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/result/compare-spotbugs/csv/manual_label/spotbugs-unmatched-result.xlsx
+++ b/result/compare-spotbugs/csv/manual_label/spotbugs-unmatched-result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/audrey/Documents/GitHub/codegex-analysis/codegex-evaluation/result/compare-spotbugs/csv/manual_label/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/audrey/Documents/GitHub/xiaoven/rbugs_experiments/result/compare-spotbugs/csv/manual_label/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E72A8C8-DE2C-5A4F-89E8-CCAB76759564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DEFDF3-55FE-4E4F-A064-845983022989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19320" yWindow="0" windowWidth="19080" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="spotbugs-unmatched-result" sheetId="1" r:id="rId1"/>
@@ -331,13 +331,17 @@
     <t>org/biojava/nbio/genome/parsers/geneid/GeneIDXMLReader.java</t>
   </si>
   <si>
+    <t>Only support single-line pattern</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>GeneIDXMLReader geneIDXMLReader = new GeneIDXMLReader("/Users/Scooter/scripps/dyadic/geneid/geneid/c1_geneid.xml");</t>
   </si>
   <si>
+    <t>org/biojava/nbio/genome/parsers/gff/GFF3Reader.java</t>
+  </si>
+  <si>
     <t>Only support single-line pattern</t>
-  </si>
-  <si>
-    <t>org/biojava/nbio/genome/parsers/gff/GFF3Reader.java</t>
   </si>
   <si>
     <t>FeatureList listGenes = GFF3Reader.read("/home/melo/workspace/release/stdout.combined.checked2.gtf");</t>
@@ -506,17 +510,13 @@
   </si>
   <si>
     <t>parse("/Users/apple/百度云同步盘/origin_html_youdao.zip");</t>
-  </si>
-  <si>
-    <t>Only support single-line pattern</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -528,7 +528,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman Regular"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -553,12 +552,6 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -617,7 +610,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -655,8 +648,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -940,11 +931,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:AO69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AH57" sqref="AH57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -2011,721 +2002,2033 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="23" t="s">
+    <row r="33" spans="1:41">
+      <c r="A33" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="7">
         <v>89</v>
       </c>
-      <c r="E33" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="24" t="s">
+      <c r="E33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="7"/>
+      <c r="AH33" s="7"/>
+      <c r="AI33" s="7"/>
+      <c r="AJ33" s="7"/>
+      <c r="AK33" s="7"/>
+      <c r="AL33" s="7"/>
+      <c r="AM33" s="7"/>
+      <c r="AN33" s="7"/>
+      <c r="AO33" s="7"/>
+    </row>
+    <row r="34" spans="1:41">
+      <c r="A34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="7">
+        <v>192</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="7"/>
+      <c r="AI34" s="7"/>
+      <c r="AJ34" s="7"/>
+      <c r="AK34" s="7"/>
+      <c r="AL34" s="7"/>
+      <c r="AM34" s="7"/>
+      <c r="AN34" s="7"/>
+      <c r="AO34" s="7"/>
+    </row>
+    <row r="35" spans="1:41">
+      <c r="A35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="7">
+        <v>207</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="7"/>
+      <c r="AC35" s="7"/>
+      <c r="AD35" s="7"/>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="7"/>
+      <c r="AG35" s="7"/>
+      <c r="AH35" s="7"/>
+      <c r="AI35" s="7"/>
+      <c r="AJ35" s="7"/>
+      <c r="AK35" s="7"/>
+      <c r="AL35" s="7"/>
+      <c r="AM35" s="7"/>
+      <c r="AN35" s="7"/>
+      <c r="AO35" s="7"/>
+    </row>
+    <row r="36" spans="1:41">
+      <c r="A36" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="7">
+        <v>199</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="7"/>
+      <c r="AD36" s="7"/>
+      <c r="AE36" s="7"/>
+      <c r="AF36" s="7"/>
+      <c r="AG36" s="7"/>
+      <c r="AH36" s="7"/>
+      <c r="AI36" s="7"/>
+      <c r="AJ36" s="7"/>
+      <c r="AK36" s="7"/>
+      <c r="AL36" s="7"/>
+      <c r="AM36" s="7"/>
+      <c r="AN36" s="7"/>
+      <c r="AO36" s="7"/>
+    </row>
+    <row r="37" spans="1:41">
+      <c r="A37" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="7">
+        <v>86</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="7"/>
+      <c r="AC37" s="7"/>
+      <c r="AD37" s="7"/>
+      <c r="AE37" s="7"/>
+      <c r="AF37" s="7"/>
+      <c r="AG37" s="7"/>
+      <c r="AH37" s="7"/>
+      <c r="AI37" s="7"/>
+      <c r="AJ37" s="7"/>
+      <c r="AK37" s="7"/>
+      <c r="AL37" s="7"/>
+      <c r="AM37" s="7"/>
+      <c r="AN37" s="7"/>
+      <c r="AO37" s="7"/>
+    </row>
+    <row r="38" spans="1:41">
+      <c r="A38" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="7">
+        <v>91</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="7"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="7"/>
+      <c r="AG38" s="7"/>
+      <c r="AH38" s="7"/>
+      <c r="AI38" s="7"/>
+      <c r="AJ38" s="7"/>
+      <c r="AK38" s="7"/>
+      <c r="AL38" s="7"/>
+      <c r="AM38" s="7"/>
+      <c r="AN38" s="7"/>
+      <c r="AO38" s="7"/>
+    </row>
+    <row r="39" spans="1:41">
+      <c r="A39" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="7">
+        <v>161</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="7"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="7"/>
+      <c r="AG39" s="7"/>
+      <c r="AH39" s="7"/>
+      <c r="AI39" s="7"/>
+      <c r="AJ39" s="7"/>
+      <c r="AK39" s="7"/>
+      <c r="AL39" s="7"/>
+      <c r="AM39" s="7"/>
+      <c r="AN39" s="7"/>
+      <c r="AO39" s="7"/>
+    </row>
+    <row r="40" spans="1:41">
+      <c r="A40" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" s="7">
+        <v>403</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="7"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="7"/>
+      <c r="AG40" s="7"/>
+      <c r="AH40" s="7"/>
+      <c r="AI40" s="7"/>
+      <c r="AJ40" s="7"/>
+      <c r="AK40" s="7"/>
+      <c r="AL40" s="7"/>
+      <c r="AM40" s="7"/>
+      <c r="AN40" s="7"/>
+      <c r="AO40" s="7"/>
+    </row>
+    <row r="41" spans="1:41">
+      <c r="A41" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="7">
+        <v>555</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7"/>
+      <c r="AC41" s="7"/>
+      <c r="AD41" s="7"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="7"/>
+      <c r="AG41" s="7"/>
+      <c r="AH41" s="7"/>
+      <c r="AI41" s="7"/>
+      <c r="AJ41" s="7"/>
+      <c r="AK41" s="7"/>
+      <c r="AL41" s="7"/>
+      <c r="AM41" s="7"/>
+      <c r="AN41" s="7"/>
+      <c r="AO41" s="7"/>
+    </row>
+    <row r="42" spans="1:41">
+      <c r="A42" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="7">
+        <v>525</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="7"/>
+      <c r="AC42" s="7"/>
+      <c r="AD42" s="7"/>
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="7"/>
+      <c r="AG42" s="7"/>
+      <c r="AH42" s="7"/>
+      <c r="AI42" s="7"/>
+      <c r="AJ42" s="7"/>
+      <c r="AK42" s="7"/>
+      <c r="AL42" s="7"/>
+      <c r="AM42" s="7"/>
+      <c r="AN42" s="7"/>
+      <c r="AO42" s="7"/>
+    </row>
+    <row r="43" spans="1:41">
+      <c r="A43" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="7">
+        <v>96</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="7"/>
+      <c r="AC43" s="7"/>
+      <c r="AD43" s="7"/>
+      <c r="AE43" s="7"/>
+      <c r="AF43" s="7"/>
+      <c r="AG43" s="7"/>
+      <c r="AH43" s="7"/>
+      <c r="AI43" s="7"/>
+      <c r="AJ43" s="7"/>
+      <c r="AK43" s="7"/>
+      <c r="AL43" s="7"/>
+      <c r="AM43" s="7"/>
+      <c r="AN43" s="7"/>
+      <c r="AO43" s="7"/>
+    </row>
+    <row r="44" spans="1:41">
+      <c r="A44" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="7">
+        <v>248</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7"/>
+      <c r="AA44" s="7"/>
+      <c r="AB44" s="7"/>
+      <c r="AC44" s="7"/>
+      <c r="AD44" s="7"/>
+      <c r="AE44" s="7"/>
+      <c r="AF44" s="7"/>
+      <c r="AG44" s="7"/>
+      <c r="AH44" s="7"/>
+      <c r="AI44" s="7"/>
+      <c r="AJ44" s="7"/>
+      <c r="AK44" s="7"/>
+      <c r="AL44" s="7"/>
+      <c r="AM44" s="7"/>
+      <c r="AN44" s="7"/>
+      <c r="AO44" s="7"/>
+    </row>
+    <row r="45" spans="1:41">
+      <c r="A45" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="7">
+        <v>190</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="7"/>
+      <c r="AB45" s="7"/>
+      <c r="AC45" s="7"/>
+      <c r="AD45" s="7"/>
+      <c r="AE45" s="7"/>
+      <c r="AF45" s="7"/>
+      <c r="AG45" s="7"/>
+      <c r="AH45" s="7"/>
+      <c r="AI45" s="7"/>
+      <c r="AJ45" s="7"/>
+      <c r="AK45" s="7"/>
+      <c r="AL45" s="7"/>
+      <c r="AM45" s="7"/>
+      <c r="AN45" s="7"/>
+      <c r="AO45" s="7"/>
+    </row>
+    <row r="46" spans="1:41">
+      <c r="A46" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" s="7">
+        <v>37</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="7"/>
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7"/>
+      <c r="AE46" s="7"/>
+      <c r="AF46" s="7"/>
+      <c r="AG46" s="7"/>
+      <c r="AH46" s="7"/>
+      <c r="AI46" s="7"/>
+      <c r="AJ46" s="7"/>
+      <c r="AK46" s="7"/>
+      <c r="AL46" s="7"/>
+      <c r="AM46" s="7"/>
+      <c r="AN46" s="7"/>
+      <c r="AO46" s="7"/>
+    </row>
+    <row r="47" spans="1:41">
+      <c r="A47" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" s="7">
+        <v>142</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="7"/>
+      <c r="AG47" s="7"/>
+      <c r="AH47" s="7"/>
+      <c r="AI47" s="7"/>
+      <c r="AJ47" s="7"/>
+      <c r="AK47" s="7"/>
+      <c r="AL47" s="7"/>
+      <c r="AM47" s="7"/>
+      <c r="AN47" s="7"/>
+      <c r="AO47" s="7"/>
+    </row>
+    <row r="48" spans="1:41">
+      <c r="A48" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D48" s="7">
+        <v>55</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="7"/>
+      <c r="AB48" s="7"/>
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="7"/>
+      <c r="AE48" s="7"/>
+      <c r="AF48" s="7"/>
+      <c r="AG48" s="7"/>
+      <c r="AH48" s="7"/>
+      <c r="AI48" s="7"/>
+      <c r="AJ48" s="7"/>
+      <c r="AK48" s="7"/>
+      <c r="AL48" s="7"/>
+      <c r="AM48" s="7"/>
+      <c r="AN48" s="7"/>
+      <c r="AO48" s="7"/>
+    </row>
+    <row r="49" spans="1:41">
+      <c r="A49" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" s="7">
+        <v>167</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="7"/>
+      <c r="AB49" s="7"/>
+      <c r="AC49" s="7"/>
+      <c r="AD49" s="7"/>
+      <c r="AE49" s="7"/>
+      <c r="AF49" s="7"/>
+      <c r="AG49" s="7"/>
+      <c r="AH49" s="7"/>
+      <c r="AI49" s="7"/>
+      <c r="AJ49" s="7"/>
+      <c r="AK49" s="7"/>
+      <c r="AL49" s="7"/>
+      <c r="AM49" s="7"/>
+      <c r="AN49" s="7"/>
+      <c r="AO49" s="7"/>
+    </row>
+    <row r="50" spans="1:41">
+      <c r="A50" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" s="7">
+        <v>234</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="7"/>
+      <c r="AB50" s="7"/>
+      <c r="AC50" s="7"/>
+      <c r="AD50" s="7"/>
+      <c r="AE50" s="7"/>
+      <c r="AF50" s="7"/>
+      <c r="AG50" s="7"/>
+      <c r="AH50" s="7"/>
+      <c r="AI50" s="7"/>
+      <c r="AJ50" s="7"/>
+      <c r="AK50" s="7"/>
+      <c r="AL50" s="7"/>
+      <c r="AM50" s="7"/>
+      <c r="AN50" s="7"/>
+      <c r="AO50" s="7"/>
+    </row>
+    <row r="51" spans="1:41">
+      <c r="A51" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D51" s="7">
+        <v>228</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7"/>
+      <c r="AA51" s="7"/>
+      <c r="AB51" s="7"/>
+      <c r="AC51" s="7"/>
+      <c r="AD51" s="7"/>
+      <c r="AE51" s="7"/>
+      <c r="AF51" s="7"/>
+      <c r="AG51" s="7"/>
+      <c r="AH51" s="7"/>
+      <c r="AI51" s="7"/>
+      <c r="AJ51" s="7"/>
+      <c r="AK51" s="7"/>
+      <c r="AL51" s="7"/>
+      <c r="AM51" s="7"/>
+      <c r="AN51" s="7"/>
+      <c r="AO51" s="7"/>
+    </row>
+    <row r="52" spans="1:41">
+      <c r="A52" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52" s="7">
+        <v>206</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="7"/>
+      <c r="AB52" s="7"/>
+      <c r="AC52" s="7"/>
+      <c r="AD52" s="7"/>
+      <c r="AE52" s="7"/>
+      <c r="AF52" s="7"/>
+      <c r="AG52" s="7"/>
+      <c r="AH52" s="7"/>
+      <c r="AI52" s="7"/>
+      <c r="AJ52" s="7"/>
+      <c r="AK52" s="7"/>
+      <c r="AL52" s="7"/>
+      <c r="AM52" s="7"/>
+      <c r="AN52" s="7"/>
+      <c r="AO52" s="7"/>
+    </row>
+    <row r="53" spans="1:41">
+      <c r="A53" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D53" s="7">
+        <v>178</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="7"/>
+      <c r="AA53" s="7"/>
+      <c r="AB53" s="7"/>
+      <c r="AC53" s="7"/>
+      <c r="AD53" s="7"/>
+      <c r="AE53" s="7"/>
+      <c r="AF53" s="7"/>
+      <c r="AG53" s="7"/>
+      <c r="AH53" s="7"/>
+      <c r="AI53" s="7"/>
+      <c r="AJ53" s="7"/>
+      <c r="AK53" s="7"/>
+      <c r="AL53" s="7"/>
+      <c r="AM53" s="7"/>
+      <c r="AN53" s="7"/>
+      <c r="AO53" s="7"/>
+    </row>
+    <row r="54" spans="1:41">
+      <c r="A54" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54" s="7">
+        <v>176</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="7"/>
+      <c r="AB54" s="7"/>
+      <c r="AC54" s="7"/>
+      <c r="AD54" s="7"/>
+      <c r="AE54" s="7"/>
+      <c r="AF54" s="7"/>
+      <c r="AG54" s="7"/>
+      <c r="AH54" s="7"/>
+      <c r="AI54" s="7"/>
+      <c r="AJ54" s="7"/>
+      <c r="AK54" s="7"/>
+      <c r="AL54" s="7"/>
+      <c r="AM54" s="7"/>
+      <c r="AN54" s="7"/>
+      <c r="AO54" s="7"/>
+    </row>
+    <row r="55" spans="1:41">
+      <c r="A55" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D55" s="7">
+        <v>192</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="7"/>
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="7"/>
+      <c r="AA55" s="7"/>
+      <c r="AB55" s="7"/>
+      <c r="AC55" s="7"/>
+      <c r="AD55" s="7"/>
+      <c r="AE55" s="7"/>
+      <c r="AF55" s="7"/>
+      <c r="AG55" s="7"/>
+      <c r="AH55" s="7"/>
+      <c r="AI55" s="7"/>
+      <c r="AJ55" s="7"/>
+      <c r="AK55" s="7"/>
+      <c r="AL55" s="7"/>
+      <c r="AM55" s="7"/>
+      <c r="AN55" s="7"/>
+      <c r="AO55" s="7"/>
+    </row>
+    <row r="56" spans="1:41">
+      <c r="A56" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D56" s="7">
+        <v>181</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="7"/>
+      <c r="Y56" s="7"/>
+      <c r="Z56" s="7"/>
+      <c r="AA56" s="7"/>
+      <c r="AB56" s="7"/>
+      <c r="AC56" s="7"/>
+      <c r="AD56" s="7"/>
+      <c r="AE56" s="7"/>
+      <c r="AF56" s="7"/>
+      <c r="AG56" s="7"/>
+      <c r="AH56" s="7"/>
+      <c r="AI56" s="7"/>
+      <c r="AJ56" s="7"/>
+      <c r="AK56" s="7"/>
+      <c r="AL56" s="7"/>
+      <c r="AM56" s="7"/>
+      <c r="AN56" s="7"/>
+      <c r="AO56" s="7"/>
+    </row>
+    <row r="57" spans="1:41">
+      <c r="A57" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D57" s="7">
+        <v>171</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="7"/>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="7"/>
+      <c r="AA57" s="7"/>
+      <c r="AB57" s="7"/>
+      <c r="AC57" s="7"/>
+      <c r="AD57" s="7"/>
+      <c r="AE57" s="7"/>
+      <c r="AF57" s="7"/>
+      <c r="AG57" s="7"/>
+      <c r="AH57" s="7"/>
+      <c r="AI57" s="7"/>
+      <c r="AJ57" s="7"/>
+      <c r="AK57" s="7"/>
+      <c r="AL57" s="7"/>
+      <c r="AM57" s="7"/>
+      <c r="AN57" s="7"/>
+      <c r="AO57" s="7"/>
+    </row>
+    <row r="58" spans="1:41">
+      <c r="A58" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D58" s="7">
+        <v>170</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7"/>
+      <c r="W58" s="7"/>
+      <c r="X58" s="7"/>
+      <c r="Y58" s="7"/>
+      <c r="Z58" s="7"/>
+      <c r="AA58" s="7"/>
+      <c r="AB58" s="7"/>
+      <c r="AC58" s="7"/>
+      <c r="AD58" s="7"/>
+      <c r="AE58" s="7"/>
+      <c r="AF58" s="7"/>
+      <c r="AG58" s="7"/>
+      <c r="AH58" s="7"/>
+      <c r="AI58" s="7"/>
+      <c r="AJ58" s="7"/>
+      <c r="AK58" s="7"/>
+      <c r="AL58" s="7"/>
+      <c r="AM58" s="7"/>
+      <c r="AN58" s="7"/>
+      <c r="AO58" s="7"/>
+    </row>
+    <row r="59" spans="1:41">
+      <c r="A59" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D59" s="7">
+        <v>754</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="7"/>
+      <c r="AA59" s="7"/>
+      <c r="AB59" s="7"/>
+      <c r="AC59" s="7"/>
+      <c r="AD59" s="7"/>
+      <c r="AE59" s="7"/>
+      <c r="AF59" s="7"/>
+      <c r="AG59" s="7"/>
+      <c r="AH59" s="7"/>
+      <c r="AI59" s="7"/>
+      <c r="AJ59" s="7"/>
+      <c r="AK59" s="7"/>
+      <c r="AL59" s="7"/>
+      <c r="AM59" s="7"/>
+      <c r="AN59" s="7"/>
+      <c r="AO59" s="7"/>
+    </row>
+    <row r="60" spans="1:41">
+      <c r="A60" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D60" s="7">
+        <v>312</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="7"/>
+      <c r="V60" s="7"/>
+      <c r="W60" s="7"/>
+      <c r="X60" s="7"/>
+      <c r="Y60" s="7"/>
+      <c r="Z60" s="7"/>
+      <c r="AA60" s="7"/>
+      <c r="AB60" s="7"/>
+      <c r="AC60" s="7"/>
+      <c r="AD60" s="7"/>
+      <c r="AE60" s="7"/>
+      <c r="AF60" s="7"/>
+      <c r="AG60" s="7"/>
+      <c r="AH60" s="7"/>
+      <c r="AI60" s="7"/>
+      <c r="AJ60" s="7"/>
+      <c r="AK60" s="7"/>
+      <c r="AL60" s="7"/>
+      <c r="AM60" s="7"/>
+      <c r="AN60" s="7"/>
+      <c r="AO60" s="7"/>
+    </row>
+    <row r="61" spans="1:41">
+      <c r="A61" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D61" s="7">
+        <v>247</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7"/>
+      <c r="X61" s="7"/>
+      <c r="Y61" s="7"/>
+      <c r="Z61" s="7"/>
+      <c r="AA61" s="7"/>
+      <c r="AB61" s="7"/>
+      <c r="AC61" s="7"/>
+      <c r="AD61" s="7"/>
+      <c r="AE61" s="7"/>
+      <c r="AF61" s="7"/>
+      <c r="AG61" s="7"/>
+      <c r="AH61" s="7"/>
+      <c r="AI61" s="7"/>
+      <c r="AJ61" s="7"/>
+      <c r="AK61" s="7"/>
+      <c r="AL61" s="7"/>
+      <c r="AM61" s="7"/>
+      <c r="AN61" s="7"/>
+      <c r="AO61" s="7"/>
+    </row>
+    <row r="62" spans="1:41">
+      <c r="A62" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D62" s="7">
+        <v>249</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="7"/>
+      <c r="V62" s="7"/>
+      <c r="W62" s="7"/>
+      <c r="X62" s="7"/>
+      <c r="Y62" s="7"/>
+      <c r="Z62" s="7"/>
+      <c r="AA62" s="7"/>
+      <c r="AB62" s="7"/>
+      <c r="AC62" s="7"/>
+      <c r="AD62" s="7"/>
+      <c r="AE62" s="7"/>
+      <c r="AF62" s="7"/>
+      <c r="AG62" s="7"/>
+      <c r="AH62" s="7"/>
+      <c r="AI62" s="7"/>
+      <c r="AJ62" s="7"/>
+      <c r="AK62" s="7"/>
+      <c r="AL62" s="7"/>
+      <c r="AM62" s="7"/>
+      <c r="AN62" s="7"/>
+      <c r="AO62" s="7"/>
+    </row>
+    <row r="63" spans="1:41">
+      <c r="A63" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D63" s="7">
+        <v>313</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J63" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="J33" s="24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" s="23">
-        <v>192</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J34" s="24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="23">
-        <v>207</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J35" s="24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="23">
-        <v>199</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J36" s="24" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" s="23">
-        <v>86</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I37" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J37" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="D38" s="23">
-        <v>91</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J38" s="24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D39" s="23">
-        <v>161</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I39" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J39" s="24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="D40" s="23">
-        <v>403</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I40" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J40" s="24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D41" s="23">
-        <v>555</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J41" s="24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42" s="23">
-        <v>525</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J42" s="24" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="D43" s="23">
-        <v>96</v>
-      </c>
-      <c r="E43" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I43" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J43" s="24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="D44" s="23">
-        <v>248</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J44" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="D45" s="23">
-        <v>190</v>
-      </c>
-      <c r="E45" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J45" s="24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="D46" s="23">
-        <v>37</v>
-      </c>
-      <c r="E46" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J46" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="D47" s="23">
-        <v>142</v>
-      </c>
-      <c r="E47" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I47" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J47" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="D48" s="23">
-        <v>55</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I48" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J48" s="24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="D49" s="23">
-        <v>167</v>
-      </c>
-      <c r="E49" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I49" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J49" s="24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="D50" s="23">
-        <v>234</v>
-      </c>
-      <c r="E50" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I50" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J50" s="24" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="D51" s="23">
-        <v>228</v>
-      </c>
-      <c r="E51" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I51" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J51" s="24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B52" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="D52" s="23">
-        <v>206</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I52" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J52" s="24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="D53" s="23">
-        <v>178</v>
-      </c>
-      <c r="E53" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I53" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J53" s="24" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B54" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="D54" s="23">
-        <v>176</v>
-      </c>
-      <c r="E54" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I54" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J54" s="24" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B55" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="D55" s="23">
-        <v>192</v>
-      </c>
-      <c r="E55" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I55" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J55" s="24" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B56" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="D56" s="23">
-        <v>181</v>
-      </c>
-      <c r="E56" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I56" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J56" s="24" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B57" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C57" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="D57" s="23">
-        <v>171</v>
-      </c>
-      <c r="E57" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I57" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J57" s="24" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B58" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C58" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="D58" s="23">
-        <v>170</v>
-      </c>
-      <c r="E58" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I58" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J58" s="24" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B59" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C59" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="D59" s="23">
-        <v>754</v>
-      </c>
-      <c r="E59" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I59" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J59" s="24" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="D60" s="23">
-        <v>312</v>
-      </c>
-      <c r="E60" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I60" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J60" s="24" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B61" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="D61" s="23">
-        <v>247</v>
-      </c>
-      <c r="E61" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I61" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J61" s="24" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B62" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C62" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="D62" s="23">
-        <v>249</v>
-      </c>
-      <c r="E62" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I62" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J62" s="24" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B63" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C63" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="D63" s="23">
-        <v>313</v>
-      </c>
-      <c r="E63" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I63" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="J63" s="24" t="s">
-        <v>156</v>
-      </c>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
+      <c r="V63" s="7"/>
+      <c r="W63" s="7"/>
+      <c r="X63" s="7"/>
+      <c r="Y63" s="7"/>
+      <c r="Z63" s="7"/>
+      <c r="AA63" s="7"/>
+      <c r="AB63" s="7"/>
+      <c r="AC63" s="7"/>
+      <c r="AD63" s="7"/>
+      <c r="AE63" s="7"/>
+      <c r="AF63" s="7"/>
+      <c r="AG63" s="7"/>
+      <c r="AH63" s="7"/>
+      <c r="AI63" s="7"/>
+      <c r="AJ63" s="7"/>
+      <c r="AK63" s="7"/>
+      <c r="AL63" s="7"/>
+      <c r="AM63" s="7"/>
+      <c r="AN63" s="7"/>
+      <c r="AO63" s="7"/>
+    </row>
+    <row r="64" spans="1:41">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="7"/>
+      <c r="T64" s="7"/>
+      <c r="U64" s="7"/>
+      <c r="V64" s="7"/>
+      <c r="W64" s="7"/>
+      <c r="X64" s="7"/>
+      <c r="Y64" s="7"/>
+      <c r="Z64" s="7"/>
+      <c r="AA64" s="7"/>
+      <c r="AB64" s="7"/>
+      <c r="AC64" s="7"/>
+      <c r="AD64" s="7"/>
+      <c r="AE64" s="7"/>
+      <c r="AF64" s="7"/>
+      <c r="AG64" s="7"/>
+      <c r="AH64" s="7"/>
+      <c r="AI64" s="7"/>
+      <c r="AJ64" s="7"/>
+      <c r="AK64" s="7"/>
+      <c r="AL64" s="7"/>
+      <c r="AM64" s="7"/>
+      <c r="AN64" s="7"/>
+      <c r="AO64" s="7"/>
+    </row>
+    <row r="65" spans="1:41">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7"/>
+      <c r="Y65" s="7"/>
+      <c r="Z65" s="7"/>
+      <c r="AA65" s="7"/>
+      <c r="AB65" s="7"/>
+      <c r="AC65" s="7"/>
+      <c r="AD65" s="7"/>
+      <c r="AE65" s="7"/>
+      <c r="AF65" s="7"/>
+      <c r="AG65" s="7"/>
+      <c r="AH65" s="7"/>
+      <c r="AI65" s="7"/>
+      <c r="AJ65" s="7"/>
+      <c r="AK65" s="7"/>
+      <c r="AL65" s="7"/>
+      <c r="AM65" s="7"/>
+      <c r="AN65" s="7"/>
+      <c r="AO65" s="7"/>
+    </row>
+    <row r="66" spans="1:41">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="7"/>
+      <c r="W66" s="7"/>
+      <c r="X66" s="7"/>
+      <c r="Y66" s="7"/>
+      <c r="Z66" s="7"/>
+      <c r="AA66" s="7"/>
+      <c r="AB66" s="7"/>
+      <c r="AC66" s="7"/>
+      <c r="AD66" s="7"/>
+      <c r="AE66" s="7"/>
+      <c r="AF66" s="7"/>
+      <c r="AG66" s="7"/>
+      <c r="AH66" s="7"/>
+      <c r="AI66" s="7"/>
+      <c r="AJ66" s="7"/>
+      <c r="AK66" s="7"/>
+      <c r="AL66" s="7"/>
+      <c r="AM66" s="7"/>
+      <c r="AN66" s="7"/>
+      <c r="AO66" s="7"/>
+    </row>
+    <row r="67" spans="1:41">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
+      <c r="W67" s="7"/>
+      <c r="X67" s="7"/>
+      <c r="Y67" s="7"/>
+      <c r="Z67" s="7"/>
+      <c r="AA67" s="7"/>
+      <c r="AB67" s="7"/>
+      <c r="AC67" s="7"/>
+      <c r="AD67" s="7"/>
+      <c r="AE67" s="7"/>
+      <c r="AF67" s="7"/>
+      <c r="AG67" s="7"/>
+      <c r="AH67" s="7"/>
+      <c r="AI67" s="7"/>
+      <c r="AJ67" s="7"/>
+      <c r="AK67" s="7"/>
+      <c r="AL67" s="7"/>
+      <c r="AM67" s="7"/>
+      <c r="AN67" s="7"/>
+      <c r="AO67" s="7"/>
+    </row>
+    <row r="68" spans="1:41">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="7"/>
+      <c r="T68" s="7"/>
+      <c r="U68" s="7"/>
+      <c r="V68" s="7"/>
+      <c r="W68" s="7"/>
+      <c r="X68" s="7"/>
+      <c r="Y68" s="7"/>
+      <c r="Z68" s="7"/>
+      <c r="AA68" s="7"/>
+      <c r="AB68" s="7"/>
+      <c r="AC68" s="7"/>
+      <c r="AD68" s="7"/>
+      <c r="AE68" s="7"/>
+      <c r="AF68" s="7"/>
+      <c r="AG68" s="7"/>
+      <c r="AH68" s="7"/>
+      <c r="AI68" s="7"/>
+      <c r="AJ68" s="7"/>
+      <c r="AK68" s="7"/>
+      <c r="AL68" s="7"/>
+      <c r="AM68" s="7"/>
+      <c r="AN68" s="7"/>
+      <c r="AO68" s="7"/>
+    </row>
+    <row r="69" spans="1:41">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="7"/>
+      <c r="Y69" s="7"/>
+      <c r="Z69" s="7"/>
+      <c r="AA69" s="7"/>
+      <c r="AB69" s="7"/>
+      <c r="AC69" s="7"/>
+      <c r="AD69" s="7"/>
+      <c r="AE69" s="7"/>
+      <c r="AF69" s="7"/>
+      <c r="AG69" s="7"/>
+      <c r="AH69" s="7"/>
+      <c r="AI69" s="7"/>
+      <c r="AJ69" s="7"/>
+      <c r="AK69" s="7"/>
+      <c r="AL69" s="7"/>
+      <c r="AM69" s="7"/>
+      <c r="AN69" s="7"/>
+      <c r="AO69" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
